--- a/evaluation_results.xlsx
+++ b/evaluation_results.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D9D9D9"/>
         <bgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCFFCC"/>
+        <bgColor rgb="00CCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCCC"/>
+        <bgColor rgb="00FFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,11 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +448,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="7.199999999999999" customWidth="1" min="2" max="2"/>
-    <col width="58.8" customWidth="1" min="3" max="3"/>
-    <col width="9.6" customWidth="1" min="4" max="4"/>
-    <col width="50.4" customWidth="1" min="5" max="5"/>
+    <col width="22.8" customWidth="1" min="2" max="2"/>
+    <col width="100" customWidth="1" min="3" max="3"/>
+    <col width="14.4" customWidth="1" min="4" max="4"/>
+    <col width="100" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,23 +493,378 @@
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Error al procesar Jorge Cortes_evaluacion.xlsx</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Hoja 'Datos' no encontrada en el archivo</t>
-        </is>
-      </c>
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Cálculo</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>¿Cuantos ID tiene la base de datos?</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Correcto</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Obtenido: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Edición y formato</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Cambia el nombre de la columna 'Seguimiento' por 'Sentimiento'</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Correcto</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Edición y formato</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Centrar el contenido de todas las celdas</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Correcto</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Todas las celdas de la tabla están centradas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Edición y formato</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Ajusta el ancho de las columnas</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Correcto</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Comparado con anchos de columnas esperados (con tolerancia) en el rango de la tabla.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Fórmulas</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Calcula el número total de llamadas registradas</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Incorrecto</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Esperado: 30, Obtenido: 29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Fórmulas</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Utiliza la función 'Dar formato como tabla'</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Correcto</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Formato de tabla o filtros aplicados correctamente en el rango C5:K35</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Fórmulas</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Cuántas llamadas tuvieron un Sentimiento 'Very Positive'</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Correcto</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Esperado: 3, Obtenido: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Fórmulas</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Calcula la duración promedio de las llamadas</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Correcto</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Fórmula y respuesta correctas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Fórmulas</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Ajusta el formato fecha a 'dd/mm/yyyy'</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Correcto</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Formato de fecha correcto en todas las celdas del rango G6:G35</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Fórmulas</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Ordena la tabla por 'Puntuación' de mayor a menor y puntaje máximo</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Correcto</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Ordenación y respuesta correctas</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Fórmulas</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Cuantas llamadas hay con ese puntaje Máximo</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Correcto</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Fórmulas</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Si el 'ID' de un cliente es PJL-11752230. Dime cual es el nombre y apellido al que corresponde</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Correcto</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Fórmulas</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Resalta en Rojo las celdas de la columna 'Puntuación' que sean inferiores a 5 (&lt;5)</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Correcto</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Formato condicional correcto en todas las celdas menores a 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Gráficos</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Crea un gráfico de barras (Nombre del cliente vs Puntuación)</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Incorrecto</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>No se encontró un gráfico de barras adecuado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Gráficos</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Crea un gráfico (Duración de la Llamada vs Puntuación)</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Incorrecto</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>No se encontró un gráfico adecuado para la relación Duración/Puntuación.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>--- Fin de evaluación ---</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
